--- a/tab_precos.xlsx
+++ b/tab_precos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bf856fe4fd556d8/Área de Trabalho/Curso Python/Projeto X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{17C62EDF-C7BE-4F70-80D8-615A66A1EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{071CB811-AA3B-4551-B484-E88FA483493A}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{17C62EDF-C7BE-4F70-80D8-615A66A1EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D17F132C-1D96-453A-882B-0E20400FCFBA}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{6B44ED7B-61F8-401B-9279-E3E13AABDDB9}"/>
   </bookViews>
@@ -11276,13 +11276,13 @@
     <t>KIT COMPLETO DE DIGITOS PARA DATADOR MY-380</t>
   </si>
   <si>
-    <t>Código Bling</t>
-  </si>
-  <si>
     <t>Produto</t>
   </si>
   <si>
-    <t>Preço R$</t>
+    <t xml:space="preserve">Código </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preço </t>
   </si>
 </sst>
 </file>
@@ -11756,7 +11756,7 @@
   <dimension ref="A1:F1853"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11771,7 +11771,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -11780,7 +11780,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
